--- a/Group4-需求式样书.xlsx
+++ b/Group4-需求式样书.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView windowWidth="23256" windowHeight="12576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="6" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
   <si>
     <t>项目名称</t>
   </si>
@@ -188,10 +188,10 @@
     <t>V0.1</t>
   </si>
   <si>
-    <t>音乐播放器式样</t>
-  </si>
-  <si>
-    <t>强子</t>
+    <t>车辆信息主界面</t>
+  </si>
+  <si>
+    <t>曾旭</t>
   </si>
   <si>
     <r>
@@ -212,31 +212,10 @@
     </r>
   </si>
   <si>
-    <t>小张</t>
-  </si>
-  <si>
-    <t>初版完成</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>V1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>.0</t>
-    </r>
-  </si>
-  <si>
-    <t>内容评审修改</t>
+    <t>简单登陆注册界面</t>
+  </si>
+  <si>
+    <t>刘飞宇</t>
   </si>
   <si>
     <r>
@@ -253,13 +232,196 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>1.1</t>
+      <t>0.3</t>
     </r>
   </si>
   <si>
+    <t>实现导航</t>
+  </si>
+  <si>
+    <t>王浩琰</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+  </si>
+  <si>
+    <t>简单音乐播放</t>
+  </si>
+  <si>
+    <t>李薇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <t>发现界面创建</t>
+  </si>
+  <si>
+    <t>许家豪</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.6</t>
+    </r>
+  </si>
+  <si>
+    <t>显示用户头像，主界面实现位置信息显示</t>
+  </si>
+  <si>
+    <t>刘飞宇、曾旭</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.7</t>
+    </r>
+  </si>
+  <si>
+    <t>实现音乐列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.8</t>
+    </r>
+  </si>
+  <si>
+    <t>实现采集行驶记录</t>
+  </si>
+  <si>
+    <t>v0.8.1</t>
+  </si>
+  <si>
+    <t>实现采集车辆停止位置</t>
+  </si>
+  <si>
+    <t>v0.8.2</t>
+  </si>
+  <si>
+    <t>实现用户到车辆停止位置的导航</t>
+  </si>
+  <si>
+    <t>v0.8.3</t>
+  </si>
+  <si>
+    <t>车辆信息采集，显示</t>
+  </si>
+  <si>
+    <t>v0.8.4</t>
+  </si>
+  <si>
+    <t>远程对车辆车门的遥控解锁</t>
+  </si>
+  <si>
+    <t>v0.8.5</t>
+  </si>
+  <si>
+    <t>发现界面的优化已经浏览信息窗口的优化</t>
+  </si>
+  <si>
+    <t>v0.8.6</t>
+  </si>
+  <si>
+    <t>添加对音乐的收藏和取消收藏，音乐播放可实现多种列表循环</t>
+  </si>
+  <si>
+    <t>v0.8.7</t>
+  </si>
+  <si>
+    <t>登陆注册界面的全新优化，注册时可添加更加具体的个人信息</t>
+  </si>
+  <si>
+    <t>v0.8.8</t>
+  </si>
+  <si>
+    <t>初版完成</t>
+  </si>
+  <si>
+    <t>v0.9</t>
+  </si>
+  <si>
+    <t>内容评审修改</t>
+  </si>
+  <si>
+    <t>v0.9.1</t>
+  </si>
+  <si>
     <t>外部评审修改</t>
   </si>
   <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>正式版</t>
+  </si>
+  <si>
     <t>功能需求</t>
   </si>
   <si>
@@ -311,18 +473,27 @@
     <t>分别显示账户信息、音乐播放器、导航、发现、车辆信息主控界面、设置</t>
   </si>
   <si>
+    <t>主界面-02</t>
+  </si>
+  <si>
     <t>音乐、导航、发现、账户信息界面</t>
   </si>
   <si>
     <t>合并其他成员的界面以及代码信息，实现这几个界面的功能</t>
   </si>
   <si>
+    <t>主界面-03</t>
+  </si>
+  <si>
     <t>车辆信息主控界面</t>
   </si>
   <si>
     <t>登陆以后，显示车辆信息界面。在与车机端连接的情况下，显示车辆的具体情况，包括：汽车车门，车窗状态、行驶过程中车辆的速度信息等。可以简单控制汽车车门的上锁和解锁。显示车辆停止位置显示</t>
   </si>
   <si>
+    <t>主界面-04</t>
+  </si>
+  <si>
     <t>设置界面</t>
   </si>
   <si>
@@ -332,10 +503,30 @@
     <t>导航-02</t>
   </si>
   <si>
-    <t>mapview+button+menu</t>
-  </si>
-  <si>
-    <t>定位自己位置+获取车辆位置及导航到车所在位置</t>
+    <t>mapview</t>
+  </si>
+  <si>
+    <t>1.定位自己位
+2.置显示车辆所在位置
+3.显示距离车的距离</t>
+  </si>
+  <si>
+    <t>导航-02-02</t>
+  </si>
+  <si>
+    <t>导航</t>
+  </si>
+  <si>
+    <t>导航自己现在位置到车所在位置</t>
+  </si>
+  <si>
+    <t>导航-02-03</t>
+  </si>
+  <si>
+    <t>行驶记录</t>
+  </si>
+  <si>
+    <t>显示车辆行驶路线及行驶路程</t>
   </si>
   <si>
     <t>音乐播放-03</t>
@@ -410,7 +601,7 @@
     <t>点击取消音乐收藏</t>
   </si>
   <si>
-    <t>浏览器、信息查询</t>
+    <t>浏览器、信息查询-01</t>
   </si>
   <si>
     <t>查询栏</t>
@@ -419,16 +610,25 @@
     <t>查询智能驾驶助手的信息</t>
   </si>
   <si>
+    <t>浏览器、信息查询-02</t>
+  </si>
+  <si>
     <t>标签</t>
   </si>
   <si>
     <t>智能驾驶助手的详细内容</t>
   </si>
   <si>
+    <t>浏览器、信息查询-03</t>
+  </si>
+  <si>
     <t>视频</t>
   </si>
   <si>
     <t>展示各种各样的汽车模型以及详细介绍</t>
+  </si>
+  <si>
+    <t>浏览器、信息查询-04</t>
   </si>
   <si>
     <t>最新看点</t>
@@ -639,18 +839,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="10">
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="mmm"/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0.0_);\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="179" formatCode="mmm"/>
+    <numFmt numFmtId="180" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="181" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -678,12 +878,6 @@
       <b/>
       <sz val="14"/>
       <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -695,41 +889,42 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <i/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -755,23 +950,12 @@
     </font>
     <font>
       <sz val="36"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="36"/>
       <name val="楷体_GB2312"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -793,6 +977,11 @@
     <font>
       <sz val="18"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
@@ -811,9 +1000,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -825,7 +1031,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,6 +1045,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="楷体_GB2312"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="仿宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <charset val="255"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -847,33 +1153,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="36"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="黑体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -882,138 +1198,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="36"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="黑体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="明朝"/>
-      <charset val="255"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Helv"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="楷体_GB2312"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="仿宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1031,7 +1215,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,13 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,7 +1251,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,43 +1305,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1139,19 +1353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1163,7 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,31 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,20 +1405,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1261,6 +1445,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1273,47 +1481,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,6 +1509,32 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,11 +1567,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,182 +1593,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="53" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="53" fillId="33" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="10" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="45" fillId="16" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="45" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="12">
+    <xf numFmtId="178" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,7 +1809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1616,84 +1824,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1703,10 +1890,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59" applyAlignment="1">
@@ -1718,26 +1905,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="59" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="59" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="59">
       <alignment vertical="center"/>
@@ -1751,49 +1965,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,16 +2013,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="59" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1823,18 +2031,18 @@
   </cellXfs>
   <cellStyles count="72">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="1"/>
-    <cellStyle name="千位[0]_laroux" xfId="2"/>
-    <cellStyle name="普通_laroux" xfId="3"/>
-    <cellStyle name="桁区切り_(D)日程計画" xfId="4"/>
-    <cellStyle name="段落标题2" xfId="5"/>
-    <cellStyle name="標準_(D)日程計画" xfId="6"/>
-    <cellStyle name="样式 1" xfId="7"/>
-    <cellStyle name="Percent [2]" xfId="8"/>
-    <cellStyle name="Normal_#10-Headcount" xfId="9"/>
-    <cellStyle name="段落标题1" xfId="10"/>
-    <cellStyle name="Input [yellow]" xfId="11"/>
-    <cellStyle name="Grey" xfId="12"/>
+    <cellStyle name="Grey" xfId="1"/>
+    <cellStyle name="Input [yellow]" xfId="2"/>
+    <cellStyle name="段落标题1" xfId="3"/>
+    <cellStyle name="Normal_#10-Headcount" xfId="4"/>
+    <cellStyle name="Percent [2]" xfId="5"/>
+    <cellStyle name="样式 1" xfId="6"/>
+    <cellStyle name="標準_(D)日程計画" xfId="7"/>
+    <cellStyle name="段落标题2" xfId="8"/>
+    <cellStyle name="桁区切り_(D)日程計画" xfId="9"/>
+    <cellStyle name="普通_laroux" xfId="10"/>
+    <cellStyle name="千位[0]_laroux" xfId="11"/>
+    <cellStyle name="通貨 [0.00]_(D)日程計画" xfId="12"/>
     <cellStyle name="New Times Roman" xfId="13"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="14" builtinId="52"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="15" builtinId="42"/>
@@ -1843,8 +2051,8 @@
     <cellStyle name="输入" xfId="18" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="19" builtinId="39"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="20" builtinId="38"/>
-    <cellStyle name="通貨_(D)日程計画" xfId="21"/>
-    <cellStyle name="Header1" xfId="22"/>
+    <cellStyle name="Header1" xfId="21"/>
+    <cellStyle name="通貨_(D)日程計画" xfId="22"/>
     <cellStyle name="货币" xfId="23" builtinId="4"/>
     <cellStyle name="强调文字颜色 3" xfId="24" builtinId="37"/>
     <cellStyle name="Normal - Style1" xfId="25"/>
@@ -2531,128 +2739,128 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="7" width="9" style="58"/>
-    <col min="8" max="8" width="15" style="58" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="58"/>
+    <col min="1" max="7" width="9" style="60"/>
+    <col min="8" max="8" width="15" style="60" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" s="59" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A1" s="62"/>
-    </row>
-    <row r="2" s="59" customFormat="1" ht="22.5" spans="1:1">
-      <c r="A2" s="62"/>
-    </row>
-    <row r="3" s="60" customFormat="1" ht="21" spans="1:8">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
+    <row r="1" s="61" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A1" s="64"/>
+    </row>
+    <row r="2" s="61" customFormat="1" ht="22.5" spans="1:1">
+      <c r="A2" s="64"/>
+    </row>
+    <row r="3" s="62" customFormat="1" ht="21" spans="1:8">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
       <c r="H3" s="82"/>
     </row>
-    <row r="4" s="60" customFormat="1" ht="23.25" spans="1:8">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+    <row r="4" s="62" customFormat="1" ht="23.25" spans="1:8">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="83"/>
       <c r="G4" s="82"/>
       <c r="H4" s="82"/>
     </row>
-    <row r="5" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A5" s="64"/>
-    </row>
-    <row r="6" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A6" s="64"/>
-    </row>
-    <row r="7" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A7" s="64"/>
-    </row>
-    <row r="8" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A8" s="64"/>
-    </row>
-    <row r="9" s="59" customFormat="1" ht="18.75" hidden="1" spans="1:1">
-      <c r="A9" s="64"/>
-    </row>
-    <row r="10" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A10" s="64"/>
-    </row>
-    <row r="11" s="59" customFormat="1" ht="18.75" spans="1:1">
-      <c r="A11" s="64"/>
-    </row>
-    <row r="12" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A12" s="65"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-    </row>
-    <row r="13" s="60" customFormat="1" ht="46.5" spans="1:8">
-      <c r="A13" s="66" t="s">
+    <row r="5" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A5" s="66"/>
+    </row>
+    <row r="6" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A6" s="66"/>
+    </row>
+    <row r="7" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A7" s="66"/>
+    </row>
+    <row r="8" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A8" s="66"/>
+    </row>
+    <row r="9" s="61" customFormat="1" ht="18.75" hidden="1" spans="1:1">
+      <c r="A9" s="66"/>
+    </row>
+    <row r="10" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A10" s="66"/>
+    </row>
+    <row r="11" s="61" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A11" s="66"/>
+    </row>
+    <row r="12" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A12" s="67"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+    </row>
+    <row r="13" s="62" customFormat="1" ht="46.5" spans="1:8">
+      <c r="A13" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" s="60" customFormat="1" ht="15.75" spans="1:9">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="45"/>
-    </row>
-    <row r="15" s="60" customFormat="1" ht="42.75" spans="1:8">
-      <c r="A15" s="71" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" s="62" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" s="62" customFormat="1" ht="42.75" spans="1:8">
+      <c r="A15" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-    </row>
-    <row r="16" s="59" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A16" s="72"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-    </row>
-    <row r="17" s="59" customFormat="1" ht="17.25" spans="1:9">
-      <c r="A17" s="73"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-    </row>
-    <row r="18" s="59" customFormat="1" ht="22.5" spans="1:9">
-      <c r="A18" s="74" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+    </row>
+    <row r="16" s="61" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A16" s="73"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" s="61" customFormat="1" ht="17.25" spans="1:9">
+      <c r="A17" s="74"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" s="61" customFormat="1" ht="22.5" spans="1:9">
+      <c r="A18" s="75" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="75"/>
@@ -2662,108 +2870,108 @@
       <c r="F18" s="75"/>
       <c r="G18" s="75"/>
       <c r="H18" s="75"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A19" s="65"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-    </row>
-    <row r="20" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A20" s="65"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-    </row>
-    <row r="21" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A21" s="65"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-    </row>
-    <row r="22" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A22" s="65"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-    </row>
-    <row r="23" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A23" s="65"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-    </row>
-    <row r="24" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A24" s="65"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-    </row>
-    <row r="25" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A25" s="65"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-    </row>
-    <row r="26" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A26" s="65"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-    </row>
-    <row r="27" s="59" customFormat="1" ht="18.75" spans="1:9">
-      <c r="A27" s="65"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-    </row>
-    <row r="28" s="60" customFormat="1" ht="21.75" spans="1:8">
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A19" s="67"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+    </row>
+    <row r="20" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A20" s="67"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+    </row>
+    <row r="21" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A21" s="67"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A22" s="67"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A23" s="67"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+    </row>
+    <row r="24" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A24" s="67"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+    </row>
+    <row r="25" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A25" s="67"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+    </row>
+    <row r="26" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A26" s="67"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+    </row>
+    <row r="27" s="61" customFormat="1" ht="18.75" spans="1:9">
+      <c r="A27" s="67"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" s="62" customFormat="1" ht="21.75" spans="1:8">
       <c r="A28" s="76" t="s">
         <v>3</v>
       </c>
@@ -2775,37 +2983,37 @@
       <c r="G28" s="76"/>
       <c r="H28" s="76"/>
     </row>
-    <row r="29" s="60" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A29" s="68"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-    </row>
-    <row r="30" s="60" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A30" s="68"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-    </row>
-    <row r="31" s="60" customFormat="1" ht="15.75" spans="1:8">
-      <c r="A31" s="68"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-    </row>
-    <row r="32" s="61" customFormat="1" spans="1:8">
+    <row r="29" s="62" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+    </row>
+    <row r="30" s="62" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A30" s="69"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+    </row>
+    <row r="31" s="62" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A31" s="69"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+    </row>
+    <row r="32" s="63" customFormat="1" spans="1:8">
       <c r="A32" s="77" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +3031,7 @@
       </c>
       <c r="H32" s="78"/>
     </row>
-    <row r="33" s="61" customFormat="1" spans="1:8">
+    <row r="33" s="63" customFormat="1" spans="1:8">
       <c r="A33" s="77" t="s">
         <v>8</v>
       </c>
@@ -2837,11 +3045,11 @@
       <c r="G33" s="79"/>
       <c r="H33" s="79"/>
     </row>
-    <row r="34" s="59" customFormat="1"/>
-    <row r="35" s="59" customFormat="1"/>
-    <row r="36" s="59" customFormat="1"/>
-    <row r="37" s="59" customFormat="1"/>
-    <row r="38" s="59" customFormat="1"/>
+    <row r="34" s="61" customFormat="1"/>
+    <row r="35" s="61" customFormat="1"/>
+    <row r="36" s="61" customFormat="1"/>
+    <row r="37" s="61" customFormat="1"/>
+    <row r="38" s="61" customFormat="1"/>
     <row r="55" spans="1:1">
       <c r="A55" s="80"/>
     </row>
@@ -2874,7 +3082,7 @@
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -2882,196 +3090,318 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="3" max="3" width="50.7" customWidth="1"/>
-    <col min="4" max="4" width="9.9" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.75" spans="1:5">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="58"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="60"/>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:5">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="58"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" ht="15.75" spans="1:5">
-      <c r="A3" s="51">
-        <v>44054</v>
-      </c>
-      <c r="B3" s="52" t="s">
+      <c r="A3" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" ht="15.75" spans="1:5">
-      <c r="A4" s="52"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B4" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="58"/>
+      <c r="D4" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="60"/>
     </row>
     <row r="5" ht="15.75" spans="1:5">
-      <c r="A5" s="52"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
+      <c r="A5" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="60"/>
     </row>
     <row r="6" ht="15.75" spans="1:5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="60"/>
     </row>
     <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="A7" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="60"/>
     </row>
     <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="52"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58"/>
+      <c r="A8" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="60"/>
     </row>
     <row r="9" ht="15.75" spans="1:5">
-      <c r="A9" s="52"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="A9" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="60"/>
     </row>
     <row r="10" ht="15.75" spans="1:5">
-      <c r="A10" s="52"/>
-      <c r="B10" s="56">
-        <v>0.7</v>
-      </c>
-      <c r="C10" s="55" t="s">
+      <c r="A10" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="60"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="60"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="60"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:5">
+      <c r="A13" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="60"/>
+    </row>
+    <row r="14" ht="15.75" spans="1:5">
+      <c r="A14" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="60"/>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
+      <c r="A15" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="60"/>
+    </row>
+    <row r="16" ht="28.5" spans="1:5">
+      <c r="A16" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="60"/>
+    </row>
+    <row r="17" ht="28.5" spans="1:5">
+      <c r="A17" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B17" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-    </row>
-    <row r="11" ht="15.75" spans="1:5">
-      <c r="A11" s="52"/>
-      <c r="B11" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
-    </row>
-    <row r="12" ht="15.75" spans="1:5">
-      <c r="A12" s="52"/>
-      <c r="B12" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="52"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="52"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" ht="15.75" spans="1:5">
-      <c r="A15" s="52"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="52"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="58"/>
-    </row>
-    <row r="17" ht="15.75" spans="1:5">
-      <c r="A17" s="52"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" ht="15.75" spans="1:5">
-      <c r="A18" s="52"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="58"/>
+      <c r="A18" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="52"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" ht="15.75" spans="1:5">
-      <c r="A19" s="52"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="52"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" ht="15.75" spans="1:5">
-      <c r="A20" s="52"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="58"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="A20" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="60"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
+      <c r="A21" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="59"/>
+      <c r="E21" s="60"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:5">
+      <c r="A22" s="44">
+        <v>44055</v>
+      </c>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
@@ -3087,10 +3417,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -3105,365 +3435,383 @@
     <row r="1" ht="27" customHeight="1" spans="2:3">
       <c r="B1" s="14"/>
       <c r="C1" s="15" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1" spans="1:4">
       <c r="A2" s="16" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D3" s="20"/>
     </row>
     <row r="4" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
       <c r="A4" s="21" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D4" s="24"/>
     </row>
     <row r="5" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
       <c r="A5" s="21" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D5" s="24"/>
     </row>
     <row r="6" s="12" customFormat="1" ht="35.25" customHeight="1" spans="1:4">
       <c r="A6" s="21" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="D6" s="24"/>
     </row>
     <row r="7" ht="31.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="29"/>
+      <c r="A7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" ht="80.25" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
-        <v>44</v>
+      <c r="A8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="D8" s="24"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31" t="s">
-        <v>46</v>
+      <c r="A9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="D9" s="24"/>
     </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A10" s="32" t="s">
-        <v>48</v>
+    <row r="10" ht="49.2" customHeight="1" spans="1:4">
+      <c r="A10" s="29" t="s">
+        <v>85</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>50</v>
+        <v>86</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="D10" s="24"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A11" s="30"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="26"/>
+      <c r="A11" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>90</v>
+      </c>
       <c r="D11" s="24"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A12" s="30"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>93</v>
+      </c>
       <c r="D12" s="24"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A13" s="34" t="s">
-        <v>51</v>
+      <c r="A13" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="D13" s="24"/>
     </row>
     <row r="14" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A14" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>55</v>
+      <c r="A14" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="D14" s="24"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>58</v>
+      <c r="A15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D15" s="24"/>
     </row>
     <row r="16" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A16" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>61</v>
+      <c r="A16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A17" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>64</v>
+      <c r="A17" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>67</v>
+      <c r="A18" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A19" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>70</v>
+      <c r="A19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>73</v>
+      <c r="A20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D20" s="24"/>
     </row>
-    <row r="21" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="20"/>
+    <row r="21" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A21" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A23" s="35"/>
+      <c r="A23" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="B23" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="29"/>
+        <v>125</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A24" s="35"/>
+      <c r="A24" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="B24" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="29"/>
+        <v>128</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="27"/>
     </row>
     <row r="25" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A25" s="35"/>
-      <c r="B25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A26" s="35"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="29"/>
-    </row>
-    <row r="27" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="20"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+    </row>
+    <row r="26" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A27" s="33"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A28" s="35"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="29"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A29" s="35"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="29"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
     </row>
     <row r="30" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A30" s="35"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A31" s="35"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="20"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+    </row>
+    <row r="31" s="12" customFormat="1" ht="16.5" customHeight="1" spans="1:4">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
+      <c r="A32" s="33"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A33" s="35"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
     </row>
     <row r="34" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A34" s="35"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="29"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
     </row>
     <row r="35" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A35" s="35"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1" outlineLevel="1" spans="1:4">
-      <c r="A36" s="35"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="36"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="39" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="46" t="s">
-        <v>84</v>
+      <c r="A40" s="39" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="46" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="46" t="s">
-        <v>88</v>
+      <c r="A41" s="39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="39" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3847,7 @@
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="8"/>
       <c r="B1" s="9" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3507,37 +3855,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" outlineLevel="1" spans="1:2">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A4" s="10"/>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" outlineLevel="1" spans="1:2">
       <c r="A5" s="10"/>
       <c r="B5" s="6" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" outlineLevel="1" spans="1:2">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" outlineLevel="1" spans="1:2">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" outlineLevel="1" spans="1:1">
@@ -3548,13 +3896,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" ht="59.25" customHeight="1" outlineLevel="1" collapsed="1" spans="1:2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" outlineLevel="1" spans="1:2">
@@ -3574,13 +3922,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" ht="138" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" outlineLevel="1" spans="1:2">
@@ -3600,13 +3948,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" ht="93.75" customHeight="1" outlineLevel="1" spans="1:2">
       <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" outlineLevel="1" spans="1:2">
@@ -3626,7 +3974,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" outlineLevel="1" spans="1:2">
@@ -3646,7 +3994,7 @@
         <v>6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" outlineLevel="1" spans="1:2">
@@ -3666,7 +4014,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" outlineLevel="1" spans="1:2">
@@ -3686,7 +4034,7 @@
         <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" outlineLevel="1" spans="1:2">
@@ -3708,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" outlineLevel="1"/>
@@ -3748,105 +4096,105 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="2:2">
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:2">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="2:2">
       <c r="B5" s="6" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B6" s="6"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="2:2">
       <c r="B7" s="6" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="B8" s="6"/>
     </row>
     <row r="9" ht="16.5" customHeight="1" spans="2:2">
       <c r="B9" s="6" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
       <c r="B10" s="6"/>
     </row>
     <row r="11" ht="16.5" customHeight="1" spans="2:2">
       <c r="B11" s="6" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="B12" s="6"/>
     </row>
     <row r="13" ht="16.5" customHeight="1" spans="2:2">
       <c r="B13" s="6" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="B14" s="6"/>
     </row>
     <row r="15" ht="16.5" customHeight="1" spans="2:2">
       <c r="B15" s="6" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="B16" s="6"/>
     </row>
     <row r="17" ht="16.5" customHeight="1" spans="2:2">
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
       <c r="B18" s="6"/>
     </row>
     <row r="19" ht="16.5" customHeight="1" spans="2:2">
       <c r="B19" s="6" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="2:2">
